--- a/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="6" r:id="rId1"/>
-    <sheet name="Label" sheetId="8" r:id="rId2"/>
-    <sheet name="Folder" sheetId="7" r:id="rId3"/>
-    <sheet name="File-timeseries" sheetId="4" r:id="rId4"/>
-    <sheet name="File-relation" sheetId="1" r:id="rId5"/>
+    <sheet name="Explanation" sheetId="16" r:id="rId1"/>
+    <sheet name="Template" sheetId="6" r:id="rId2"/>
+    <sheet name="Label" sheetId="11" r:id="rId3"/>
+    <sheet name="Folder" sheetId="7" r:id="rId4"/>
+    <sheet name="File-timeseries" sheetId="15" r:id="rId5"/>
+    <sheet name="File-relation" sheetId="1" r:id="rId6"/>
+    <sheet name="File-calculate" sheetId="12" r:id="rId7"/>
+    <sheet name="File-aggregation" sheetId="13" r:id="rId8"/>
+    <sheet name="File-reference" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -70,19 +74,16 @@
     <t>path</t>
   </si>
   <si>
+    <t>displayName</t>
+  </si>
+  <si>
     <t>templateAlias</t>
   </si>
   <si>
-    <t>folder1/</t>
-  </si>
-  <si>
-    <t>folder1/folder2/</t>
-  </si>
-  <si>
-    <t>↓↓↓ Please enter your folder information start with row 5 ↓↓↓</t>
-  </si>
-  <si>
-    <t>mockData</t>
+    <t>folder1</t>
+  </si>
+  <si>
+    <t>folder1/folder2</t>
   </si>
   <si>
     <t>autoDashboard</t>
@@ -100,7 +101,7 @@
     <t>tag1_xxx</t>
   </si>
   <si>
-    <t>[{"name":"t0","type":"int"},{"name":"t1","type":"long"},{"name":"t2","type":"float"}]</t>
+    <t>label1,label2</t>
   </si>
   <si>
     <t>folder1/tag2</t>
@@ -109,12 +110,6 @@
     <t>tag2_xxx</t>
   </si>
   <si>
-    <t>[{"name":"t0","type":"int","index":0},{"name":"t1","type":"long","index":1},{"name":"t2","type":"float"}]</t>
-  </si>
-  <si>
-    <t>label1,label2</t>
-  </si>
-  <si>
     <t>↓↓↓ Please enter your namespace information start with row 5 ↓↓↓</t>
   </si>
   <si>
@@ -128,6 +123,72 @@
   </si>
   <si>
     <t>rel2_xxx</t>
+  </si>
+  <si>
+    <t>refers</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>folder1/cal1</t>
+  </si>
+  <si>
+    <t>cal1_xxx</t>
+  </si>
+  <si>
+    <t>[{"name":"t0","type":"int"}]</t>
+  </si>
+  <si>
+    <t>[{"field":"t0","path":"folder1/tag1","alias":"tag1_xxx","uts":true},{"field":"t1","path":"folder1/tag2","alias":"tag2_xxx"}]</t>
+  </si>
+  <si>
+    <t>a1+a2&gt;0</t>
+  </si>
+  <si>
+    <t>folder1/cal2</t>
+  </si>
+  <si>
+    <t>cal2_xxx</t>
+  </si>
+  <si>
+    <t>[{"field":"t0","path":"folder1/tag1","alias":"tag1_xxx"},{"field":"t1","path":"folder1/tag2","alias":"tag2_xxx"}]</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>folder1/agg1</t>
+  </si>
+  <si>
+    <t>agg1_xxx</t>
+  </si>
+  <si>
+    <t>[{"path":"folder1/tag1","alias":"tag1_xxx"},{"path":"folder1/tag2","alias":"tag2_xxx"}]</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>folder1/agg2</t>
+  </si>
+  <si>
+    <t>agg2_xxx</t>
+  </si>
+  <si>
+    <t>folder1/ref1</t>
+  </si>
+  <si>
+    <t>ref1_xxx</t>
+  </si>
+  <si>
+    <t>[{"path":"folder1/tag1","alias":"tag1_xxx"}]</t>
+  </si>
+  <si>
+    <t>folder1/ref2</t>
+  </si>
+  <si>
+    <t>ref2_xxx</t>
   </si>
 </sst>
 </file>
@@ -513,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -547,43 +608,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,7 +734,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,34 +746,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,22 +875,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1181,15 +1196,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A5" sqref="$A5:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1222,18 +1253,18 @@
         <v>6</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1244,13 +1275,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="$A5:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1271,84 +1302,11 @@
       </c>
     </row>
     <row r="4" ht="121.5" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="58.375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1357,21 +1315,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="$A5:$XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="1" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="58.375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,83 +1338,51 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:9">
+    </row>
+    <row r="2" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="64" customHeight="1" spans="1:9">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1470,14 +1395,17 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="58.375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
+    <col min="2" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="58.375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.4083333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.9916666666667" customWidth="1"/>
     <col min="9" max="9" width="13.5916666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1492,78 +1420,199 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="27" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
+    <col min="2" max="4" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="58.375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.4083333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.9916666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.5916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:9">
+    </row>
+    <row r="2" customFormat="1" ht="27" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="b">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="23" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1573,4 +1622,368 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
+    <col min="2" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="6" width="58.375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.4083333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.9916666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.5916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="40.5" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
+    <col min="2" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.4083333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.9916666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.5916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="27" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
+    <col min="2" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.4083333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.9916666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="16" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>template1</t>
   </si>
   <si>
-    <t>[{"name":"t0","type":"int"},
+    <t>[{"name":"t0","type":"integer"},
 {"name":"t1","type":"long"}]</t>
   </si>
   <si>
@@ -137,7 +137,7 @@
     <t>cal1_xxx</t>
   </si>
   <si>
-    <t>[{"name":"t0","type":"int"}]</t>
+    <t>[{"name":"t0","type":"integer"}]</t>
   </si>
   <si>
     <t>[{"field":"t0","path":"folder1/tag1","alias":"tag1_xxx","uts":true},{"field":"t1","path":"folder1/tag2","alias":"tag2_xxx"}]</t>
@@ -944,6 +944,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,7 +1222,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD33"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1318,7 +1325,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD35"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1395,7 +1402,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1512,7 +1519,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD37"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1629,8 +1636,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1761,7 +1768,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD35"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1882,8 +1889,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>

--- a/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="8"/>
+    <workbookView windowWidth="28770" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="16" r:id="rId1"/>
     <sheet name="Template" sheetId="6" r:id="rId2"/>
     <sheet name="Label" sheetId="11" r:id="rId3"/>
-    <sheet name="Folder" sheetId="7" r:id="rId4"/>
-    <sheet name="File-timeseries" sheetId="15" r:id="rId5"/>
-    <sheet name="File-relation" sheetId="1" r:id="rId6"/>
-    <sheet name="File-calculate" sheetId="12" r:id="rId7"/>
-    <sheet name="File-aggregation" sheetId="13" r:id="rId8"/>
-    <sheet name="File-reference" sheetId="14" r:id="rId9"/>
+    <sheet name="Path" sheetId="7" r:id="rId4"/>
+    <sheet name="Topic-timeseries" sheetId="15" r:id="rId5"/>
+    <sheet name="Topic-relation" sheetId="1" r:id="rId6"/>
+    <sheet name="Topic-calculate" sheetId="12" r:id="rId7"/>
+    <sheet name="Topic-aggregation" sheetId="13" r:id="rId8"/>
+    <sheet name="Topic-reference" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +34,474 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Uniquely identify a template and duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Determine the hierarchical relationship of the path. The last level of the hierarchy is the original name of the path. When the alias is not filled in and there is a path with the same name on the platform, a new path will be created, and a number will be added after the name to distinguish it.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Uniquely identify a path and duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The alias of the template associated with the path. Must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The alias of the template associated with the topic. Must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a NodeRed data flow will be generated to transmit mock data to the topic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The alias of the template associated with the topic. Must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a NodeRed data flow will be generated to transmit mock data to the topic.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Other topics that are referenced by this topic. Referenced topics and aliases must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Calculation experessions, combined with referenced topics to calculate field values. Naming format: Must be a1, a2, a3..., where a1 corresponds to the first topic in refers, and a2 corresponds to the second topic, and so on.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Other topics that are referenced by this topic. Referenced topics and aliases must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The aggregation frequency, ends with h (hour), m (minute), or s (second).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Other topics that are referenced by this topic. Referenced topics and aliases must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -71,7 +537,7 @@
     <t>↓↓↓ Please enter your label start with row 5 ↓↓↓</t>
   </si>
   <si>
-    <t>path</t>
+    <t>namespace</t>
   </si>
   <si>
     <t>displayName</t>
@@ -86,40 +552,51 @@
     <t>folder1/folder2</t>
   </si>
   <si>
-    <t>autoDashboard</t>
-  </si>
-  <si>
-    <t>persistence</t>
+    <t>generateDashboard</t>
+  </si>
+  <si>
+    <t>enableHistory</t>
+  </si>
+  <si>
+    <t>mockData</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
-    <t>folder1/tag1</t>
-  </si>
-  <si>
-    <t>tag1_xxx</t>
+    <t>example/factory/ac</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>[{"name":"ac_id","type":"string"},
+{"name":"t1","type":"long"}]</t>
   </si>
   <si>
     <t>label1,label2</t>
   </si>
   <si>
-    <t>folder1/tag2</t>
-  </si>
-  <si>
-    <t>tag2_xxx</t>
+    <t>example/folder1/workshop/furnace</t>
+  </si>
+  <si>
+    <t>furnace</t>
+  </si>
+  <si>
+    <t>[{ "name": "furnace_id", "type": "string" },
+    { "name": "max_temp", "type": "integer" }]</t>
   </si>
   <si>
     <t>↓↓↓ Please enter your namespace information start with row 5 ↓↓↓</t>
   </si>
   <si>
-    <t>folder1/rel1</t>
+    <t>example/folder1/rel1</t>
   </si>
   <si>
     <t>rel1_xxx</t>
   </si>
   <si>
-    <t>folder1/rel2</t>
+    <t>example/folder1/rel2</t>
   </si>
   <si>
     <t>rel2_xxx</t>
@@ -140,7 +617,7 @@
     <t>[{"name":"t0","type":"integer"}]</t>
   </si>
   <si>
-    <t>[{"field":"t0","path":"folder1/tag1","alias":"tag1_xxx","uts":true},{"field":"t1","path":"folder1/tag2","alias":"tag2_xxx"}]</t>
+    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx","uts":true},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
   </si>
   <si>
     <t>a1+a2&gt;0</t>
@@ -152,13 +629,13 @@
     <t>cal2_xxx</t>
   </si>
   <si>
-    <t>[{"field":"t0","path":"folder1/tag1","alias":"tag1_xxx"},{"field":"t1","path":"folder1/tag2","alias":"tag2_xxx"}]</t>
+    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
   </si>
   <si>
     <t>frequency</t>
   </si>
   <si>
-    <t>folder1/agg1</t>
+    <t>example/folder1/agg1</t>
   </si>
   <si>
     <t>agg1_xxx</t>
@@ -170,13 +647,13 @@
     <t>5m</t>
   </si>
   <si>
-    <t>folder1/agg2</t>
+    <t>example/folder1/agg2</t>
   </si>
   <si>
     <t>agg2_xxx</t>
   </si>
   <si>
-    <t>folder1/ref1</t>
+    <t>example/folder1/ref1</t>
   </si>
   <si>
     <t>ref1_xxx</t>
@@ -185,7 +662,7 @@
     <t>[{"path":"folder1/tag1","alias":"tag1_xxx"}]</t>
   </si>
   <si>
-    <t>folder1/ref2</t>
+    <t>example/folder1/ref2</t>
   </si>
   <si>
     <t>ref2_xxx</t>
@@ -201,7 +678,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +838,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -858,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +1348,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -878,10 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -944,13 +1438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1221,14 +1708,16 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1245,25 +1734,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="27" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="54" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" ht="27" spans="1:4">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
@@ -1279,6 +1768,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1288,10 +1778,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD30"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1299,17 +1792,17 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="121.5" spans="1:1">
-      <c r="A4" s="9" t="s">
+    <row r="4" ht="27" spans="1:1">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1325,7 +1818,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1356,28 +1849,28 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7"/>
@@ -1393,30 +1886,32 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
-    <col min="2" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="58.375" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="4" width="33.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="58.3666666666667" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.4083333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.9916666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.5916666666667" customWidth="1"/>
+    <col min="7" max="7" width="24.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.3666666666667" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,18 +1939,21 @@
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="27" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -1464,21 +1962,24 @@
       <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="I2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -1487,13 +1988,16 @@
       <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
+      <c r="I3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1503,37 +2007,40 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
-    <col min="2" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="58.375" customWidth="1"/>
+    <col min="1" max="1" width="17.45" customWidth="1"/>
+    <col min="2" max="4" width="33.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="40.6333333333333" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.4083333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.9916666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.5916666666667" customWidth="1"/>
+    <col min="7" max="7" width="24.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.725" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:9">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1561,13 +2068,16 @@
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="27" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1581,16 +2091,19 @@
       <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="I2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1604,13 +2117,16 @@
       <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
+      <c r="I3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1620,14 +2136,16 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1637,18 +2155,20 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
-    <col min="2" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="6" width="58.375" customWidth="1"/>
+    <col min="1" max="1" width="17.45" customWidth="1"/>
+    <col min="2" max="3" width="33.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="70.875" customWidth="1"/>
+    <col min="6" max="6" width="58.3666666666667" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="14.4083333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.9916666666667" customWidth="1"/>
-    <col min="10" max="10" width="13.5916666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.3666666666667" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
@@ -1665,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1680,25 +2200,25 @@
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="40.5" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="b">
@@ -1708,25 +2228,25 @@
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5" t="b">
@@ -1736,12 +2256,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1759,6 +2279,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1768,19 +2289,20 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
-    <col min="2" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="58.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="17.45" customWidth="1"/>
+    <col min="2" max="2" width="33.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.6333333333333" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.4083333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.9916666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.5916666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:9">
@@ -1794,10 +2316,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1809,22 +2331,22 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="27" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -1834,22 +2356,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -1859,12 +2381,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1881,6 +2403,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1889,19 +2412,19 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.4916666666667" customWidth="1"/>
-    <col min="2" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="3" width="33.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.4083333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.9916666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.5916666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:8">
@@ -1915,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1927,19 +2450,19 @@
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="b">
@@ -1949,19 +2472,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="b">
@@ -1971,12 +2494,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1992,5 +2515,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="28665" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="16" r:id="rId1"/>
@@ -501,12 +501,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>Uniquely identify a template and duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>Determine the hierarchical relationship of the path. The last level of the hierarchy is the path name. When the alias is left empty and a path with the same name exist on the platform, a new path will be created and a number will be added to its name.</t>
+  </si>
+  <si>
+    <t>Uniquely identify a path and duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+  </si>
+  <si>
+    <t>templateAlias</t>
+  </si>
+  <si>
+    <t>The alias of the template associated with the path. Must exist on the platform or in the imported Topic.</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty.</t>
+  </si>
+  <si>
+    <t>The alias of the template associated with the topic. Must exist on the platform or in the imported Topic.</t>
+  </si>
+  <si>
+    <t>generateDashboard</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
+  </si>
+  <si>
+    <t>enableHistory</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+  </si>
+  <si>
+    <t>mockData</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. TRUE means a NodeRed data flow will be generated to transmit mock data to the topic.</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>The labels bound to the topic must exist on the platform or in the imported Topic.</t>
+  </si>
+  <si>
+    <t>Topic-calculate/aggregation/reference</t>
+  </si>
+  <si>
+    <t>refers</t>
+  </si>
+  <si>
+    <t>Other topics that are referenced by this topic. Referenced topics and aliases must exist on the platform or in the imported Topic.</t>
+  </si>
+  <si>
+    <t>Topic-calculate</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculation experessions, combined with referenced topics to calculate field values. Naming format: Must be a1, a2, a3..., where a1 corresponds to the first topic in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and a2 corresponds to the second topic, and so on.</t>
+    </r>
+  </si>
+  <si>
+    <t>Topic-aggregation</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>The aggregation frequency, ends with h (hour), m (minute), or s (second).</t>
+  </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>alias</t>
   </si>
   <si>
     <t>fields</t>
@@ -537,31 +660,13 @@
     <t>↓↓↓ Please enter your label start with row 5 ↓↓↓</t>
   </si>
   <si>
-    <t>namespace</t>
-  </si>
-  <si>
     <t>displayName</t>
   </si>
   <si>
-    <t>templateAlias</t>
-  </si>
-  <si>
     <t>folder1</t>
   </si>
   <si>
     <t>folder1/folder2</t>
-  </si>
-  <si>
-    <t>generateDashboard</t>
-  </si>
-  <si>
-    <t>enableHistory</t>
-  </si>
-  <si>
-    <t>mockData</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>example/factory/ac</t>
@@ -602,12 +707,6 @@
     <t>rel2_xxx</t>
   </si>
   <si>
-    <t>refers</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
     <t>folder1/cal1</t>
   </si>
   <si>
@@ -630,9 +729,6 @@
   </si>
   <si>
     <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
-  </si>
-  <si>
-    <t>frequency</t>
   </si>
   <si>
     <t>example/folder1/agg1</t>
@@ -678,7 +774,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +785,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1210,137 +1321,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,6 +1489,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1690,14 +1813,165 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="131.25" customWidth="1"/>
+    <col min="4" max="16384" width="32.8166666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1" ht="56" customHeight="1" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1708,7 +1982,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1722,41 +1996,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" ht="27" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1788,22 +2062,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1830,45 +2104,45 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="27" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -1913,47 +2187,47 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -1966,20 +2240,20 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -1992,12 +2266,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2042,47 +2316,47 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -2095,20 +2369,20 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -2121,12 +2395,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2173,52 +2447,52 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="40.5" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="b">
@@ -2228,25 +2502,25 @@
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5" t="b">
@@ -2256,12 +2530,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2307,46 +2581,46 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="27" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="b">
@@ -2356,22 +2630,22 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="b">
@@ -2381,12 +2655,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2429,40 +2703,40 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="b">
@@ -2472,19 +2746,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="b">
@@ -2494,12 +2768,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>

--- a/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
+++ b/UnityNamespace/src/main/resources/templates/all-namespace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28665" windowHeight="6195"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="16" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Topic-calculate" sheetId="12" r:id="rId7"/>
     <sheet name="Topic-aggregation" sheetId="13" r:id="rId8"/>
     <sheet name="Topic-reference" sheetId="14" r:id="rId9"/>
+    <sheet name="Topic-jsonb" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -468,31 +469,65 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>周尧</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Topic unique identifier. Duplicate submissions are not allowed. The platform will automatically generate alias when left empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>Must be TRUE or FALSE. TRUE means a dashboard will be generated to display the topic data.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Must be TRUE or FALSE. TRUE means the data will be stored in backup database.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>The labels bound to the topic must exist on the platform or in the imported file.</t>
         </r>
       </text>
     </comment>
@@ -501,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -716,7 +751,7 @@
     <t>[{"name":"t0","type":"integer"}]</t>
   </si>
   <si>
-    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx","uts":true},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
+    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
   </si>
   <si>
     <t>a1+a2&gt;0</t>
@@ -728,9 +763,6 @@
     <t>cal2_xxx</t>
   </si>
   <si>
-    <t>[{"field":"field0","path":"example/folder1/tag1","alias":"tag1_xxx"},{"field":"field1","path":"example/folder1/tag2","alias":"tag2_xxx"}]</t>
-  </si>
-  <si>
     <t>example/folder1/agg1</t>
   </si>
   <si>
@@ -762,6 +794,9 @@
   </si>
   <si>
     <t>ref2_xxx</t>
+  </si>
+  <si>
+    <t>parentDataType</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1201,6 +1236,43 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1327,7 +1399,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,34 +1411,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1451,7 +1523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1531,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1468,21 +1543,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1815,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1828,142 +1909,142 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" ht="56" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+    <row r="3" s="17" customFormat="1" ht="56" customHeight="1" spans="1:3">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A6" s="16" t="s">
+    <row r="6" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+    <row r="10" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A12" s="16" t="s">
+    <row r="12" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A13" s="16" t="s">
+    <row r="13" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" s="14" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
-      <c r="A14" s="16" t="s">
+    <row r="14" s="17" customFormat="1" ht="48.5" customHeight="1" spans="1:3">
+      <c r="A14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1974,6 +2055,118 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="3" width="33.0916666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="17.875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2009,32 +2202,32 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2066,17 +2259,17 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2123,36 +2316,36 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2218,70 +2411,70 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="b">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="b">
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2298,7 +2491,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2347,70 +2540,70 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="36.5" customHeight="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="34.5" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="b">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="b">
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2429,7 +2622,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2477,75 +2670,75 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" ht="27" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="b">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="45" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="b">
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2562,8 +2755,8 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2592,7 +2785,7 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2609,67 +2802,67 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="27" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="46" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2684,24 +2877,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H5" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="3" width="33.0916666666667" customWidth="1"/>
     <col min="4" max="4" width="58.3666666666667" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.3666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
+    <row r="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2718,74 +2909,54 @@
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
